--- a/Data/Original_Data/CC_request_DrWorthy_DICTIONARY_05302024 - Copy.xlsx
+++ b/Data/Original_Data/CC_request_DrWorthy_DICTIONARY_05302024 - Copy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zuire\PycharmProjects\IronDeficiency\Data\Original_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E066BC-99FF-482C-9F45-15C70EE27E3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4094D3C6-A7B3-41C7-8C8E-79042C37F68D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{4F33619E-D399-492A-B824-E8FE5FFD4596}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="420">
   <si>
     <t>Variable</t>
   </si>
@@ -1316,6 +1316,9 @@
   </si>
   <si>
     <t>r</t>
+  </si>
+  <si>
+    <t>reverse</t>
   </si>
 </sst>
 </file>
@@ -1406,7 +1409,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1437,9 +1440,8 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1757,8 +1759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE4BD649-E849-48D4-ADE5-6914AAE517A1}">
   <dimension ref="A1:D214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="E93" sqref="E93"/>
+    <sheetView tabSelected="1" topLeftCell="A159" workbookViewId="0">
+      <selection activeCell="B154" sqref="B154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1779,6 +1781,9 @@
       <c r="C1" s="2" t="s">
         <v>177</v>
       </c>
+      <c r="D1" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="7" t="s">
@@ -2537,12 +2542,12 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A69" s="7" t="s">
+      <c r="A69" s="3" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A70" s="7" t="s">
+      <c r="A70" s="3" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2586,12 +2591,12 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A74" s="7" t="s">
+      <c r="A74" s="3" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A75" s="7" t="s">
+      <c r="A75" s="3" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2635,7 +2640,7 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A79" s="13" t="s">
+      <c r="A79" s="3" t="s">
         <v>116</v>
       </c>
       <c r="B79" t="s">
@@ -2646,12 +2651,12 @@
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A80" s="7" t="s">
+      <c r="A80" s="3" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A81" s="7" t="s">
+      <c r="A81" s="3" t="s">
         <v>119</v>
       </c>
     </row>
@@ -2695,12 +2700,12 @@
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A85" s="7" t="s">
+      <c r="A85" s="3" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A86" s="7" t="s">
+      <c r="A86" s="3" t="s">
         <v>127</v>
       </c>
     </row>
@@ -2916,7 +2921,7 @@
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A107" s="12" t="s">
+      <c r="A107" t="s">
         <v>209</v>
       </c>
       <c r="B107" t="s">
@@ -2984,7 +2989,7 @@
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A114" s="12" t="s">
+      <c r="A114" t="s">
         <v>226</v>
       </c>
       <c r="B114" t="s">
@@ -2995,7 +3000,7 @@
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A115" s="12" t="s">
+      <c r="A115" t="s">
         <v>229</v>
       </c>
       <c r="B115" t="s">
@@ -3043,7 +3048,7 @@
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A121" s="12" t="s">
+      <c r="A121" t="s">
         <v>241</v>
       </c>
       <c r="B121" t="s">
@@ -3458,7 +3463,7 @@
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A171" s="12" t="s">
+      <c r="A171" t="s">
         <v>344</v>
       </c>
       <c r="B171" t="s">
@@ -3525,7 +3530,7 @@
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A179" s="12" t="s">
+      <c r="A179" t="s">
         <v>361</v>
       </c>
       <c r="B179" t="s">
@@ -3693,17 +3698,17 @@
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A200" s="11" t="s">
+      <c r="A200" s="12" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A201" s="11" t="s">
+      <c r="A201" s="12" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A202" s="11" t="s">
+      <c r="A202" s="12" t="s">
         <v>405</v>
       </c>
     </row>
